--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$307</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$311</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="309">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -389,9 +389,6 @@
     <t>DAILY JOURNAL</t>
   </si>
   <si>
-    <t>account_type</t>
-  </si>
-  <si>
     <t>SALES HEADER</t>
   </si>
   <si>
@@ -701,9 +698,6 @@
     <t>CASHIER LOG</t>
   </si>
   <si>
-    <t>1=debet,-1=credit</t>
-  </si>
-  <si>
     <t>tinyint_signed</t>
   </si>
   <si>
@@ -933,16 +927,41 @@
   </si>
   <si>
     <t>product_sales_qty</t>
+  </si>
+  <si>
+    <t>account_active</t>
+  </si>
+  <si>
+    <t>account_type_id</t>
+  </si>
+  <si>
+    <t>1=debet,-2=credit</t>
+  </si>
+  <si>
+    <t>ACCOUNT_TYPE</t>
+  </si>
+  <si>
+    <t>account__type_name</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1000,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1008,10 +1027,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,7 +1127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,10 +1339,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q330"/>
+  <dimension ref="B1:Q334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C264" workbookViewId="0">
-      <selection activeCell="F279" sqref="F279"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262:F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1366,7 +1386,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>54</v>
@@ -1380,7 +1400,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1404,13 +1424,13 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1421,10 +1441,10 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
@@ -1460,7 +1480,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1471,10 +1491,10 @@
         <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1482,11 +1502,11 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1494,11 +1514,11 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1506,11 +1526,11 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1522,7 +1542,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1530,13 +1550,13 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1544,14 +1564,14 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -1564,7 +1584,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1575,7 +1595,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
@@ -1584,7 +1604,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1598,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1606,11 +1626,11 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1618,11 +1638,11 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1630,28 +1650,28 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
@@ -1684,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>54</v>
@@ -1700,7 +1720,7 @@
         <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1708,13 +1728,13 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1726,7 +1746,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1738,7 +1758,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
@@ -1762,7 +1782,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1776,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1809,7 +1829,7 @@
         <v>52</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G36" s="1"/>
       <c r="N36" t="s">
@@ -1830,7 +1850,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G37" s="1"/>
       <c r="N37" t="s">
@@ -1863,7 +1883,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1887,7 +1907,7 @@
         <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>54</v>
@@ -1906,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1920,11 +1940,11 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
@@ -1937,7 +1957,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1961,7 +1981,7 @@
         <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>54</v>
@@ -1977,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -1991,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2005,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2013,11 +2033,11 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -2037,11 +2057,11 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2049,13 +2069,13 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2070,7 +2090,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>2</v>
@@ -2079,22 +2099,22 @@
         <v>52</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2109,7 +2129,7 @@
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>2</v>
@@ -2118,7 +2138,7 @@
         <v>52</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2132,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -2140,11 +2160,11 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -2158,25 +2178,25 @@
         <v>5</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -2210,7 +2230,7 @@
         <v>52</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -2222,7 +2242,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -2230,11 +2250,11 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G67" s="1"/>
     </row>
@@ -2242,11 +2262,11 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G68" s="1"/>
     </row>
@@ -2254,11 +2274,11 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G69" s="1"/>
     </row>
@@ -2270,7 +2290,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -2282,7 +2302,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -2294,7 +2314,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -2306,7 +2326,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G73" s="1"/>
     </row>
@@ -2314,11 +2334,11 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -2326,35 +2346,35 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -2371,7 +2391,7 @@
         <v>52</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -2385,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G79" s="1"/>
     </row>
@@ -2393,11 +2413,11 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G80" s="1"/>
     </row>
@@ -2405,11 +2425,11 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G81" s="1"/>
     </row>
@@ -2417,11 +2437,11 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -2429,11 +2449,11 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -2441,11 +2461,11 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -2479,7 +2499,7 @@
         <v>52</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>54</v>
@@ -2493,7 +2513,7 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -2501,11 +2521,11 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -2513,11 +2533,11 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -2525,11 +2545,11 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -2541,7 +2561,7 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -2553,7 +2573,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G93" s="1"/>
     </row>
@@ -2565,7 +2585,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G94" s="1"/>
     </row>
@@ -2577,7 +2597,7 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G95" s="1"/>
     </row>
@@ -2602,7 +2622,7 @@
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>2</v>
@@ -2611,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>54</v>
@@ -2627,7 +2647,7 @@
         <v>61</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G99" s="1"/>
     </row>
@@ -2635,13 +2655,13 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G100" s="1"/>
     </row>
@@ -2649,11 +2669,11 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G101" s="1"/>
     </row>
@@ -2661,7 +2681,7 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
@@ -2673,11 +2693,11 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>76</v>
@@ -2687,69 +2707,69 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G108" s="1"/>
     </row>
@@ -2757,11 +2777,11 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G109" s="1"/>
     </row>
@@ -2769,11 +2789,11 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="E110" s="6"/>
       <c r="F110" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G110" s="1"/>
     </row>
@@ -2781,11 +2801,11 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="E111" s="6"/>
       <c r="F111" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G111" s="1"/>
     </row>
@@ -2799,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G112" s="1"/>
     </row>
@@ -2813,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G113" s="1"/>
     </row>
@@ -2821,13 +2841,13 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G114" s="1"/>
     </row>
@@ -2835,11 +2855,11 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G115" s="1"/>
     </row>
@@ -2847,11 +2867,11 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2859,25 +2879,25 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2885,16 +2905,16 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -2908,7 +2928,7 @@
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>78</v>
@@ -2917,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -2925,13 +2945,13 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2955,7 +2975,7 @@
         <v>52</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G124" s="1"/>
     </row>
@@ -2969,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -2981,7 +3001,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G126" s="1"/>
     </row>
@@ -2993,7 +3013,7 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" t="s">
@@ -3008,7 +3028,7 @@
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G128" s="1"/>
     </row>
@@ -3023,7 +3043,7 @@
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>2</v>
@@ -3032,7 +3052,7 @@
         <v>52</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G130" s="1"/>
     </row>
@@ -3040,11 +3060,11 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G131" s="1"/>
     </row>
@@ -3058,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G132" s="1"/>
     </row>
@@ -3066,11 +3086,11 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -3078,13 +3098,13 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -3092,11 +3112,11 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G135" s="1"/>
     </row>
@@ -3104,11 +3124,11 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G136" s="1"/>
     </row>
@@ -3132,7 +3152,7 @@
         <v>52</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G138" s="1"/>
     </row>
@@ -3144,7 +3164,7 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G139" s="1"/>
     </row>
@@ -3168,7 +3188,7 @@
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G141" s="1"/>
     </row>
@@ -3190,7 +3210,7 @@
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G143" s="1"/>
     </row>
@@ -3202,7 +3222,7 @@
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G144" s="1"/>
     </row>
@@ -3214,7 +3234,7 @@
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G145" s="1"/>
     </row>
@@ -3229,16 +3249,16 @@
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G147" s="1"/>
     </row>
@@ -3246,11 +3266,11 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G148" s="1"/>
     </row>
@@ -3258,7 +3278,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
@@ -3270,11 +3290,11 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G150" s="1"/>
     </row>
@@ -3298,7 +3318,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G152" s="1"/>
     </row>
@@ -3326,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G154" s="1"/>
     </row>
@@ -3338,7 +3358,7 @@
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G155" s="1"/>
     </row>
@@ -3350,7 +3370,7 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G156" s="1"/>
     </row>
@@ -3358,11 +3378,11 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G157" s="1"/>
     </row>
@@ -3370,11 +3390,11 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G158" s="1"/>
     </row>
@@ -3386,7 +3406,7 @@
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G159" s="1"/>
     </row>
@@ -3394,11 +3414,11 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G160" s="1"/>
     </row>
@@ -3432,7 +3452,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G163" s="1"/>
     </row>
@@ -3458,7 +3478,7 @@
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G165" s="1"/>
     </row>
@@ -3466,11 +3486,11 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G166" s="1"/>
     </row>
@@ -3478,11 +3498,11 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G167" s="1"/>
     </row>
@@ -3494,7 +3514,7 @@
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G168" s="1"/>
     </row>
@@ -3518,7 +3538,7 @@
         <v>52</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G170" s="1"/>
     </row>
@@ -3540,11 +3560,11 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G172" s="1"/>
     </row>
@@ -3552,11 +3572,11 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G173" s="1"/>
     </row>
@@ -3568,7 +3588,7 @@
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G174" s="1"/>
     </row>
@@ -3580,7 +3600,7 @@
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G175" s="1"/>
     </row>
@@ -3592,7 +3612,7 @@
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G176" s="1"/>
     </row>
@@ -3604,7 +3624,7 @@
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G177" s="1"/>
     </row>
@@ -3612,11 +3632,11 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G178" s="1"/>
     </row>
@@ -3640,7 +3660,7 @@
         <v>52</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G180" s="1"/>
     </row>
@@ -3668,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G182" s="1"/>
     </row>
@@ -3676,11 +3696,11 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G183" s="1"/>
     </row>
@@ -3692,7 +3712,7 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G184" s="1"/>
     </row>
@@ -3704,7 +3724,7 @@
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G185" s="1"/>
     </row>
@@ -3719,7 +3739,7 @@
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>2</v>
@@ -3728,7 +3748,7 @@
         <v>52</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G187" s="1"/>
     </row>
@@ -3736,7 +3756,7 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>61</v>
@@ -3750,13 +3770,13 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G189" s="1"/>
     </row>
@@ -3764,13 +3784,13 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G190" s="1"/>
     </row>
@@ -3778,11 +3798,11 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G191" s="1"/>
     </row>
@@ -3790,11 +3810,11 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G192" s="1"/>
     </row>
@@ -3814,11 +3834,11 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G194" s="1"/>
     </row>
@@ -3833,7 +3853,7 @@
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>2</v>
@@ -3842,7 +3862,7 @@
         <v>52</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G196" s="1"/>
     </row>
@@ -3850,7 +3870,7 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>5</v>
@@ -3870,7 +3890,7 @@
         <v>5</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G198" s="1"/>
     </row>
@@ -3878,11 +3898,11 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G199" s="1"/>
     </row>
@@ -3890,11 +3910,11 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G200" s="1"/>
     </row>
@@ -3902,11 +3922,11 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G201" s="1"/>
     </row>
@@ -3921,7 +3941,7 @@
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>2</v>
@@ -3930,7 +3950,7 @@
         <v>52</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G203" s="1"/>
     </row>
@@ -3938,7 +3958,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>61</v>
@@ -3952,13 +3972,13 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G205" s="1"/>
     </row>
@@ -3966,13 +3986,13 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G206" s="1"/>
     </row>
@@ -3980,11 +4000,11 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G207" s="1"/>
     </row>
@@ -3992,11 +4012,11 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G208" s="1"/>
     </row>
@@ -4004,7 +4024,7 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>61</v>
@@ -4039,7 +4059,7 @@
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>2</v>
@@ -4048,7 +4068,7 @@
         <v>52</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G212" s="1"/>
     </row>
@@ -4056,7 +4076,7 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1" t="s">
@@ -4074,7 +4094,7 @@
         <v>5</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G214" s="1"/>
     </row>
@@ -4082,11 +4102,11 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G215" s="1"/>
     </row>
@@ -4094,11 +4114,11 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G216" s="1"/>
     </row>
@@ -4106,11 +4126,11 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G217" s="1"/>
     </row>
@@ -4118,11 +4138,11 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G218" s="1"/>
     </row>
@@ -4130,15 +4150,15 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
@@ -4161,7 +4181,7 @@
         <v>52</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G221" s="1"/>
     </row>
@@ -4189,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G223" s="1"/>
     </row>
@@ -4197,11 +4217,11 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G224" s="1"/>
     </row>
@@ -4213,7 +4233,7 @@
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G225" s="1"/>
     </row>
@@ -4221,11 +4241,11 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G226" s="1"/>
     </row>
@@ -4249,7 +4269,7 @@
         <v>52</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G228" s="1"/>
     </row>
@@ -4275,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G230" s="1"/>
     </row>
@@ -4283,11 +4303,11 @@
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G231" s="1"/>
     </row>
@@ -4295,11 +4315,11 @@
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G232" s="1"/>
     </row>
@@ -4323,7 +4343,7 @@
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G234" s="1"/>
     </row>
@@ -4338,7 +4358,7 @@
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>2</v>
@@ -4347,7 +4367,7 @@
         <v>52</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G236" s="1"/>
     </row>
@@ -4355,7 +4375,7 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>61</v>
@@ -4375,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G238" s="1"/>
     </row>
@@ -4383,11 +4403,11 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G239" s="1"/>
     </row>
@@ -4395,11 +4415,11 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G240" s="1"/>
     </row>
@@ -4407,11 +4427,11 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G241" s="1"/>
     </row>
@@ -4419,11 +4439,11 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G242" s="1"/>
     </row>
@@ -4431,11 +4451,11 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G243" s="1"/>
     </row>
@@ -4443,11 +4463,11 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G244" s="1"/>
     </row>
@@ -4462,16 +4482,16 @@
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G246" s="1"/>
     </row>
@@ -4485,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G247" s="1"/>
     </row>
@@ -4497,7 +4517,7 @@
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G248" s="1"/>
     </row>
@@ -4509,7 +4529,7 @@
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G249" s="1"/>
     </row>
@@ -4517,11 +4537,11 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G250" s="1"/>
     </row>
@@ -4529,11 +4549,11 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G251" s="1"/>
     </row>
@@ -4541,11 +4561,11 @@
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G252" s="1"/>
     </row>
@@ -4553,11 +4573,11 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G253" s="1"/>
     </row>
@@ -4581,7 +4601,7 @@
         <v>52</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G255" s="1"/>
     </row>
@@ -4603,7 +4623,7 @@
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1" t="s">
@@ -4621,7 +4641,7 @@
         <v>5</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G258" s="1"/>
     </row>
@@ -4633,7 +4653,7 @@
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -4645,7 +4665,7 @@
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G260" s="1"/>
     </row>
@@ -4659,115 +4679,115 @@
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
-      <c r="C262" s="6" t="s">
+      <c r="C262" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D262" s="6" t="s">
+      <c r="D262" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E262" s="6" t="s">
+      <c r="E262" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F262" s="6" t="s">
-        <v>216</v>
+      <c r="F262" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6" t="s">
+      <c r="C263" s="5"/>
+      <c r="D263" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E263" s="6" t="s">
+      <c r="E263" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F263" s="6" t="s">
-        <v>216</v>
+      <c r="F263" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6" t="s">
+      <c r="C264" s="5"/>
+      <c r="D264" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6" t="s">
-        <v>214</v>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6" t="s">
-        <v>215</v>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6" t="s">
-        <v>215</v>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6" t="s">
-        <v>214</v>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6" t="s">
+      <c r="C268" s="5"/>
+      <c r="D268" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6" t="s">
-        <v>213</v>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
-      <c r="C269" s="6"/>
-      <c r="D269" s="6" t="s">
+      <c r="C269" s="5"/>
+      <c r="D269" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6" t="s">
+      <c r="E269" s="5"/>
+      <c r="F269" s="5" t="s">
         <v>63</v>
       </c>
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6" t="s">
+      <c r="C270" s="5"/>
+      <c r="D270" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6" t="s">
-        <v>214</v>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G270" s="1"/>
     </row>
@@ -4781,61 +4801,61 @@
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
-      <c r="C272" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D272" s="6" t="s">
+      <c r="C272" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D272" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E272" s="6" t="s">
+      <c r="E272" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F272" s="6" t="s">
-        <v>216</v>
+      <c r="F272" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
-      <c r="C273" s="6"/>
-      <c r="D273" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E273" s="6" t="s">
+      <c r="C273" s="5"/>
+      <c r="D273" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E273" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F273" s="6" t="s">
-        <v>212</v>
+      <c r="F273" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6" t="s">
+      <c r="C274" s="5"/>
+      <c r="D274" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E274" s="6" t="s">
+      <c r="E274" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F274" s="6" t="s">
-        <v>152</v>
+      <c r="F274" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
-      <c r="C275" s="6"/>
-      <c r="D275" s="6" t="s">
+      <c r="C275" s="5"/>
+      <c r="D275" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6" t="s">
-        <v>214</v>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -4843,10 +4863,10 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>119</v>
@@ -4855,11 +4875,11 @@
         <v>5</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1" t="s">
@@ -4873,7 +4893,7 @@
       </c>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1" t="s">
@@ -4887,43 +4907,43 @@
       </c>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E280" s="1"/>
       <c r="F280" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E281" s="1"/>
       <c r="F281" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E282" s="1"/>
       <c r="F282" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1" t="s">
@@ -4935,7 +4955,7 @@
       </c>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1" t="s">
@@ -4943,11 +4963,11 @@
       </c>
       <c r="E284" s="1"/>
       <c r="F284" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -4955,7 +4975,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -4963,7 +4983,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
         <v>89</v>
       </c>
@@ -4977,11 +4997,11 @@
         <v>52</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1" t="s">
@@ -4991,208 +5011,211 @@
         <v>61</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G288" s="1"/>
-      <c r="H288" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1" t="s">
-        <v>228</v>
+      <c r="D289" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G289" s="1"/>
-    </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H289" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
-      <c r="C291" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E291" s="1" t="s">
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="1"/>
+      <c r="C292" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E292" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F291" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G291" s="1"/>
-    </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>216</v>
+      <c r="F292" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G292" s="1"/>
-    </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H292" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1" t="s">
-        <v>152</v>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="D294" s="1"/>
       <c r="E294" s="1"/>
-      <c r="F294" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="C295" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D295" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E295" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F295" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
-      <c r="C297" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E297" s="1"/>
       <c r="F297" s="1" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E298" s="1"/>
       <c r="F298" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D300" s="1"/>
       <c r="E300" s="1"/>
-      <c r="F300" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
+      <c r="C301" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D301" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E301" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F301" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="D302" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
-      <c r="C303" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E303" s="1"/>
       <c r="F303" s="1" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E304" s="1"/>
       <c r="F304" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G304" s="1"/>
     </row>
@@ -5200,35 +5223,35 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
-      <c r="D306" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="D306" s="1"/>
       <c r="E306" s="1"/>
-      <c r="F306" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="C307" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D307" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E307" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F307" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G307" s="1"/>
     </row>
@@ -5236,35 +5259,37 @@
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E308" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F308" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
+      <c r="D309" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
+      <c r="F309" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
-      <c r="C310" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E310" s="1"/>
       <c r="F310" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G310" s="1"/>
     </row>
@@ -5272,13 +5297,11 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E311" t="s">
-        <v>280</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G311" s="1"/>
     </row>
@@ -5286,11 +5309,11 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="G312" s="1"/>
     </row>
@@ -5305,16 +5328,16 @@
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G314" s="1"/>
     </row>
@@ -5324,11 +5347,11 @@
       <c r="D315" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>5</v>
+      <c r="E315" t="s">
+        <v>278</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="G315" s="1"/>
     </row>
@@ -5336,35 +5359,35 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E316" s="1"/>
       <c r="F316" s="1" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
-      <c r="D317" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="D317" s="1"/>
       <c r="E317" s="1"/>
-      <c r="F317" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
+      <c r="C318" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D318" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E318" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F318" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G318" s="1"/>
     </row>
@@ -5372,11 +5395,13 @@
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E319" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F319" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="G319" s="1"/>
     </row>
@@ -5384,35 +5409,35 @@
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
+      <c r="D321" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E321" s="1"/>
-      <c r="F321" s="1"/>
+      <c r="F321" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
-      <c r="C322" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -5420,13 +5445,11 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>216</v>
+        <v>63</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -5434,35 +5457,35 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
-      <c r="D325" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="D325" s="1"/>
       <c r="E325" s="1"/>
-      <c r="F325" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
+      <c r="C326" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D326" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E326" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F326" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G326" s="1"/>
     </row>
@@ -5470,11 +5493,13 @@
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E327" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F327" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="G327" s="1"/>
     </row>
@@ -5482,17 +5507,65 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="G328" s="1"/>
     </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G329" s="1"/>
+    </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
-        <v>146</v>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G331" s="1"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$311</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$312</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="310">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>primary key, ai</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1031,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,10 +1342,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q334"/>
+  <dimension ref="B1:Q335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262:F275"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2768,7 @@
       <c r="D108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -2779,7 +2782,7 @@
       <c r="D109" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E109" s="6"/>
+      <c r="E109" s="7"/>
       <c r="F109" s="1" t="s">
         <v>233</v>
       </c>
@@ -2791,7 +2794,7 @@
       <c r="D110" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E110" s="6"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="1" t="s">
         <v>233</v>
       </c>
@@ -2803,7 +2806,7 @@
       <c r="D111" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="7"/>
       <c r="F111" s="1" t="s">
         <v>233</v>
       </c>
@@ -4990,13 +4993,13 @@
       <c r="C287" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F287" s="1" t="s">
+      <c r="D287" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F287" s="6" t="s">
         <v>211</v>
       </c>
       <c r="G287" s="1"/>
@@ -5004,117 +5007,117 @@
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
-      <c r="D288" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E288" s="1" t="s">
+      <c r="D288" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E288" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F288" s="1" t="s">
-        <v>233</v>
+      <c r="F288" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7" t="s">
-        <v>226</v>
+      <c r="D289" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="G289" s="1"/>
-      <c r="H289" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1" t="s">
+      <c r="D290" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G290" s="1"/>
+      <c r="H290" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
-      <c r="C292" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E292" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
       <c r="G292" s="1"/>
-      <c r="H292" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E293" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>308</v>
+      <c r="C293" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="G293" s="1"/>
+      <c r="H293" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
-      <c r="C295" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
+      <c r="C296" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D296" s="1" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>215</v>
@@ -5125,11 +5128,13 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E297" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F297" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G297" s="1"/>
     </row>
@@ -5137,11 +5142,11 @@
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="E298" s="1"/>
       <c r="F298" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G298" s="1"/>
     </row>
@@ -5149,46 +5154,44 @@
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
-        <v>289</v>
+        <v>143</v>
       </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
+      <c r="D300" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
+      <c r="F300" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G300" s="1"/>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
-      <c r="C301" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
+      <c r="C302" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D302" s="1" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>215</v>
@@ -5199,11 +5202,13 @@
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E303" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F303" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G303" s="1"/>
     </row>
@@ -5211,11 +5216,11 @@
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G304" s="1"/>
     </row>
@@ -5223,49 +5228,47 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
+      <c r="D306" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
+      <c r="F306" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
-      <c r="C307" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
+      <c r="C308" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D308" s="1" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G308" s="1"/>
     </row>
@@ -5273,11 +5276,13 @@
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E309" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F309" s="1" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="G309" s="1"/>
     </row>
@@ -5285,11 +5290,11 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E310" s="1"/>
       <c r="F310" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G310" s="1"/>
     </row>
@@ -5297,11 +5302,11 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G311" s="1"/>
     </row>
@@ -5309,49 +5314,47 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
+      <c r="D313" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
+      <c r="F313" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
-      <c r="C314" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="C315" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D315" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E315" t="s">
-        <v>278</v>
+        <v>140</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G315" s="1"/>
     </row>
@@ -5359,46 +5362,46 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E316" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="E316" t="s">
+        <v>278</v>
+      </c>
       <c r="F316" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
+      <c r="D317" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
+      <c r="F317" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
-      <c r="C318" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="C319" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D319" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>215</v>
@@ -5409,11 +5412,13 @@
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E320" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F320" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G320" s="1"/>
     </row>
@@ -5421,11 +5426,11 @@
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E321" s="1"/>
       <c r="F321" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G321" s="1"/>
     </row>
@@ -5433,11 +5438,11 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -5445,11 +5450,11 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -5457,46 +5462,44 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
+      <c r="D325" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
+      <c r="F325" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
-      <c r="C326" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
+      <c r="C327" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D327" s="1" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>215</v>
@@ -5507,11 +5510,13 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E328" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F328" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G328" s="1"/>
     </row>
@@ -5519,11 +5524,11 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G329" s="1"/>
     </row>
@@ -5531,11 +5536,11 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -5543,11 +5548,11 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -5555,16 +5560,28 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G332" s="1"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G332" s="1"/>
-    </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B334" t="s">
+      <c r="G333" s="1"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
         <v>145</v>
       </c>
     </row>

--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="310">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -954,7 +954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,19 +969,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1022,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1030,11 +1030,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,10 +1343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q335"/>
+  <dimension ref="B1:Q336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="E291" sqref="E291"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,178 +4683,178 @@
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="D262" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E262" s="5" t="s">
+      <c r="E262" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="F262" s="6" t="s">
         <v>215</v>
       </c>
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5" t="s">
+      <c r="C263" s="6"/>
+      <c r="D263" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E263" s="5" t="s">
+      <c r="E263" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F263" s="5" t="s">
+      <c r="F263" s="6" t="s">
         <v>215</v>
       </c>
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5" t="s">
+      <c r="C264" s="6"/>
+      <c r="D264" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5" t="s">
+      <c r="E264" s="6"/>
+      <c r="F264" s="6" t="s">
         <v>213</v>
       </c>
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5" t="s">
+      <c r="C265" s="6"/>
+      <c r="D265" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5" t="s">
+      <c r="E265" s="6"/>
+      <c r="F265" s="6" t="s">
         <v>214</v>
       </c>
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5" t="s">
+      <c r="C266" s="6"/>
+      <c r="D266" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5" t="s">
+      <c r="E266" s="6"/>
+      <c r="F266" s="6" t="s">
         <v>214</v>
       </c>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5" t="s">
+      <c r="C267" s="6"/>
+      <c r="D267" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5" t="s">
+      <c r="E267" s="6"/>
+      <c r="F267" s="6" t="s">
         <v>213</v>
       </c>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
-      <c r="C268" s="5"/>
-      <c r="D268" s="5" t="s">
+      <c r="C268" s="6"/>
+      <c r="D268" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E268" s="5"/>
-      <c r="F268" s="5" t="s">
+      <c r="E268" s="6"/>
+      <c r="F268" s="6" t="s">
         <v>212</v>
       </c>
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
-      <c r="C269" s="5"/>
-      <c r="D269" s="5" t="s">
+      <c r="C269" s="6"/>
+      <c r="D269" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E269" s="5"/>
-      <c r="F269" s="5" t="s">
+      <c r="E269" s="6"/>
+      <c r="F269" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
-      <c r="C270" s="5"/>
-      <c r="D270" s="5" t="s">
+      <c r="C270" s="6"/>
+      <c r="D270" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E270" s="5"/>
-      <c r="F270" s="5" t="s">
+      <c r="E270" s="6"/>
+      <c r="F270" s="6" t="s">
         <v>213</v>
       </c>
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1"/>
-      <c r="F271" s="1"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
-      <c r="C272" s="5" t="s">
+      <c r="C272" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D272" s="5" t="s">
+      <c r="D272" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E272" s="5" t="s">
+      <c r="E272" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F272" s="5" t="s">
+      <c r="F272" s="6" t="s">
         <v>215</v>
       </c>
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
-      <c r="C273" s="5"/>
-      <c r="D273" s="5" t="s">
+      <c r="C273" s="6"/>
+      <c r="D273" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E273" s="5" t="s">
+      <c r="E273" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F273" s="5" t="s">
+      <c r="F273" s="6" t="s">
         <v>211</v>
       </c>
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
-      <c r="C274" s="5"/>
-      <c r="D274" s="5" t="s">
+      <c r="C274" s="6"/>
+      <c r="D274" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E274" s="5" t="s">
+      <c r="E274" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F274" s="5" t="s">
+      <c r="F274" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5" t="s">
+      <c r="C275" s="6"/>
+      <c r="D275" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E275" s="5"/>
-      <c r="F275" s="5" t="s">
+      <c r="E275" s="6"/>
+      <c r="F275" s="6" t="s">
         <v>213</v>
       </c>
       <c r="G275" s="1"/>
@@ -4990,56 +4991,56 @@
       <c r="B287" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D287" s="6" t="s">
+      <c r="D287" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E287" s="6" t="s">
+      <c r="E287" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F287" s="6" t="s">
+      <c r="F287" s="8" t="s">
         <v>211</v>
       </c>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="6" t="s">
+      <c r="C288" s="8"/>
+      <c r="D288" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E288" s="6" t="s">
+      <c r="E288" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F288" s="6" t="s">
+      <c r="F288" s="8" t="s">
         <v>215</v>
       </c>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="1" t="s">
+      <c r="C289" s="8"/>
+      <c r="D289" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E289" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F289" s="1" t="s">
+      <c r="F289" s="8" t="s">
         <v>233</v>
       </c>
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="6" t="s">
+      <c r="C290" s="8"/>
+      <c r="D290" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6" t="s">
+      <c r="E290" s="8"/>
+      <c r="F290" s="8" t="s">
         <v>226</v>
       </c>
       <c r="G290" s="1"/>
@@ -5049,36 +5050,36 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1" t="s">
+      <c r="C291" s="8"/>
+      <c r="D291" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1" t="s">
+      <c r="E291" s="8"/>
+      <c r="F291" s="8" t="s">
         <v>226</v>
       </c>
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
-      <c r="C293" s="6" t="s">
+      <c r="C293" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D293" s="6" t="s">
+      <c r="D293" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E293" s="6" t="s">
+      <c r="E293" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F293" s="6" t="s">
+      <c r="F293" s="8" t="s">
         <v>226</v>
       </c>
       <c r="G293" s="1"/>
@@ -5088,14 +5089,14 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6" t="s">
+      <c r="C294" s="8"/>
+      <c r="D294" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E294" s="6" t="s">
+      <c r="E294" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F294" s="6" t="s">
+      <c r="F294" s="8" t="s">
         <v>308</v>
       </c>
       <c r="G294" s="1"/>
@@ -5337,38 +5338,36 @@
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
+      <c r="D314" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
-      <c r="C315" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
+      <c r="C316" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D316" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E316" t="s">
-        <v>278</v>
+        <v>140</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G316" s="1"/>
     </row>
@@ -5376,46 +5375,46 @@
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E317" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="E317" t="s">
+        <v>278</v>
+      </c>
       <c r="F317" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
+      <c r="D318" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
+      <c r="F318" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
-      <c r="C319" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
+      <c r="C320" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D320" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>215</v>
@@ -5426,11 +5425,13 @@
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E321" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F321" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G321" s="1"/>
     </row>
@@ -5438,11 +5439,11 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -5450,11 +5451,11 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -5462,11 +5463,11 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G324" s="1"/>
     </row>
@@ -5474,46 +5475,44 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
+      <c r="D326" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
+      <c r="F326" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
-      <c r="C327" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
+      <c r="C328" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D328" s="1" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>215</v>
@@ -5524,11 +5523,13 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E329" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F329" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G329" s="1"/>
     </row>
@@ -5536,11 +5537,11 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -5548,11 +5549,11 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -5560,11 +5561,11 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G332" s="1"/>
     </row>
@@ -5572,16 +5573,28 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G333" s="1"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G333" s="1"/>
-    </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
+      <c r="G334" s="1"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
         <v>145</v>
       </c>
     </row>

--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="310">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -1032,10 +1032,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1343,10 +1343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q336"/>
+  <dimension ref="B1:Q337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2769,7 @@
       <c r="D108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="8" t="s">
         <v>172</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -2783,7 +2783,7 @@
       <c r="D109" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E109" s="7"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="1" t="s">
         <v>233</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="D110" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E110" s="7"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="1" t="s">
         <v>233</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="D111" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E111" s="7"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="1" t="s">
         <v>233</v>
       </c>
@@ -4991,56 +4991,56 @@
       <c r="B287" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D287" s="8" t="s">
+      <c r="D287" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E287" s="8" t="s">
+      <c r="E287" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F287" s="8" t="s">
+      <c r="F287" s="7" t="s">
         <v>211</v>
       </c>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8" t="s">
+      <c r="C288" s="7"/>
+      <c r="D288" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F288" s="8" t="s">
+      <c r="F288" s="7" t="s">
         <v>215</v>
       </c>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
-      <c r="C289" s="8"/>
-      <c r="D289" s="8" t="s">
+      <c r="C289" s="7"/>
+      <c r="D289" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E289" s="8" t="s">
+      <c r="E289" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F289" s="8" t="s">
+      <c r="F289" s="7" t="s">
         <v>233</v>
       </c>
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8" t="s">
+      <c r="C290" s="7"/>
+      <c r="D290" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8" t="s">
+      <c r="E290" s="7"/>
+      <c r="F290" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G290" s="1"/>
@@ -5050,36 +5050,36 @@
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
-      <c r="C291" s="8"/>
-      <c r="D291" s="8" t="s">
+      <c r="C291" s="7"/>
+      <c r="D291" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8" t="s">
+      <c r="E291" s="7"/>
+      <c r="F291" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
-      <c r="C293" s="8" t="s">
+      <c r="C293" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D293" s="8" t="s">
+      <c r="D293" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E293" s="8" t="s">
+      <c r="E293" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F293" s="8" t="s">
+      <c r="F293" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G293" s="1"/>
@@ -5089,14 +5089,14 @@
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8" t="s">
+      <c r="C294" s="7"/>
+      <c r="D294" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E294" s="8" t="s">
+      <c r="E294" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F294" s="8" t="s">
+      <c r="F294" s="7" t="s">
         <v>308</v>
       </c>
       <c r="G294" s="1"/>
@@ -5339,7 +5339,7 @@
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="5" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="E314" s="5"/>
       <c r="F314" s="5" t="s">
@@ -5350,38 +5350,36 @@
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
+      <c r="D315" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
-      <c r="C316" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
+      <c r="C317" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D317" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E317" t="s">
-        <v>278</v>
+        <v>140</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G317" s="1"/>
     </row>
@@ -5389,46 +5387,46 @@
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E318" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="E318" t="s">
+        <v>278</v>
+      </c>
       <c r="F318" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
+      <c r="D319" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
+      <c r="F319" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
-      <c r="C320" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="C321" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D321" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>215</v>
@@ -5439,11 +5437,13 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E322" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F322" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -5451,11 +5451,11 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -5463,11 +5463,11 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G324" s="1"/>
     </row>
@@ -5475,11 +5475,11 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G325" s="1"/>
     </row>
@@ -5487,46 +5487,44 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
+      <c r="D327" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
+      <c r="F327" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
-      <c r="C328" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="C329" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D329" s="1" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>215</v>
@@ -5537,11 +5535,13 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E330" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F330" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -5549,11 +5549,11 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -5561,11 +5561,11 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G332" s="1"/>
     </row>
@@ -5573,11 +5573,11 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G333" s="1"/>
     </row>
@@ -5585,16 +5585,28 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G334" s="1"/>
-    </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
+      <c r="G335" s="1"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
         <v>145</v>
       </c>
     </row>

--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$312</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$319</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="316">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -948,6 +948,24 @@
   </si>
   <si>
     <t>primary key, ai</t>
+  </si>
+  <si>
+    <t>PRODUCT ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>product_adjustment_date</t>
+  </si>
+  <si>
+    <t>product_old_stock_qty</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>product_new_stock_qty</t>
+  </si>
+  <si>
+    <t>product_adjustment_description</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1343,10 +1361,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q337"/>
+  <dimension ref="B1:Q344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="D315" sqref="D315"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3065,7 @@
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>2</v>
@@ -3064,11 +3082,13 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F131" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="G131" s="1"/>
     </row>
@@ -3076,13 +3096,11 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G132" s="1"/>
     </row>
@@ -3090,11 +3108,11 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="G133" s="1"/>
     </row>
@@ -3102,13 +3120,11 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="G134" s="1"/>
     </row>
@@ -3116,47 +3132,47 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
-      <c r="C138" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="G138" s="1"/>
     </row>
@@ -3164,11 +3180,13 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E139" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F139" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G139" s="1"/>
     </row>
@@ -3176,11 +3194,11 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="G140" s="1"/>
     </row>
@@ -3188,81 +3206,85 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F141" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
-      <c r="C143" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D145" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F145" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="D146" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
-      <c r="C147" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G147" s="1"/>
     </row>
@@ -3270,87 +3292,81 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="C150" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D150" s="1" t="s">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
-      <c r="C152" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="C154" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D154" s="1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G154" s="1"/>
     </row>
@@ -3358,11 +3374,11 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="G155" s="1"/>
     </row>
@@ -3370,11 +3386,11 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="G156" s="1"/>
     </row>
@@ -3382,7 +3398,7 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
@@ -3393,24 +3409,24 @@
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="C159" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D159" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E159" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F159" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G159" s="1"/>
     </row>
@@ -3418,11 +3434,13 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E160" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F160" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G160" s="1"/>
     </row>
@@ -3430,33 +3448,37 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
-      <c r="C163" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G163" s="1"/>
     </row>
@@ -3464,13 +3486,11 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G164" s="1"/>
     </row>
@@ -3478,11 +3498,11 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="G165" s="1"/>
     </row>
@@ -3490,11 +3510,11 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G166" s="1"/>
     </row>
@@ -3502,11 +3522,11 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G167" s="1"/>
     </row>
@@ -3514,12 +3534,10 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
@@ -3533,13 +3551,13 @@
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>215</v>
@@ -3550,10 +3568,10 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>62</v>
@@ -3564,11 +3582,11 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G172" s="1"/>
     </row>
@@ -3576,11 +3594,11 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G173" s="1"/>
     </row>
@@ -3588,11 +3606,11 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G174" s="1"/>
     </row>
@@ -3600,7 +3618,7 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1" t="s">
@@ -3611,24 +3629,24 @@
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D177" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E177" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F177" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G177" s="1"/>
     </row>
@@ -3636,35 +3654,37 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E178" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F178" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+      <c r="D179" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
-      <c r="C180" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G180" s="1"/>
     </row>
@@ -3672,13 +3692,11 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="G181" s="1"/>
     </row>
@@ -3686,13 +3704,11 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G182" s="1"/>
     </row>
@@ -3700,11 +3716,11 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G183" s="1"/>
     </row>
@@ -3712,11 +3728,11 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G184" s="1"/>
     </row>
@@ -3724,11 +3740,11 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G185" s="1"/>
     </row>
@@ -3743,7 +3759,7 @@
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>2</v>
@@ -3760,10 +3776,10 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>62</v>
@@ -3774,13 +3790,13 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G189" s="1"/>
     </row>
@@ -3788,13 +3804,11 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E190" s="1"/>
       <c r="F190" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G190" s="1"/>
     </row>
@@ -3802,11 +3816,11 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G191" s="1"/>
     </row>
@@ -3814,7 +3828,7 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
@@ -3825,48 +3839,52 @@
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D194" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E194" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F194" s="1" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
-      <c r="C196" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>2</v>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G196" s="1"/>
     </row>
@@ -3874,13 +3892,13 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G197" s="1"/>
     </row>
@@ -3888,13 +3906,11 @@
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="G198" s="1"/>
     </row>
@@ -3902,7 +3918,7 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
@@ -3914,11 +3930,11 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G200" s="1"/>
     </row>
@@ -3926,11 +3942,11 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="G201" s="1"/>
     </row>
@@ -3945,9 +3961,9 @@
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -3962,10 +3978,10 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>62</v>
@@ -3976,13 +3992,13 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G205" s="1"/>
     </row>
@@ -3990,13 +4006,11 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G206" s="1"/>
     </row>
@@ -4004,11 +4018,11 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G207" s="1"/>
     </row>
@@ -4016,7 +4030,7 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
@@ -4024,89 +4038,89 @@
       </c>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="C210" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D210" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
-      <c r="C212" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E213" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F213" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
@@ -4114,126 +4128,125 @@
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E216" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F216" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E217" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F217" s="1" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D219" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E219" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F219" s="1" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="G219" s="1"/>
-      <c r="H219" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
+      <c r="D220" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
+      <c r="F220" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
-      <c r="C221" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
@@ -4241,19 +4254,22 @@
       </c>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="G226" s="1"/>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -4261,10 +4277,10 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>2</v>
@@ -4277,153 +4293,153 @@
       </c>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E229" s="1"/>
+      <c r="E229" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F229" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
+      <c r="C235" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
-      <c r="C236" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E238" s="1"/>
       <c r="F238" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="G240" s="1"/>
     </row>
@@ -4431,7 +4447,7 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1" t="s">
@@ -4442,24 +4458,24 @@
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="C243" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D243" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E243" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F243" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G243" s="1"/>
     </row>
@@ -4467,35 +4483,39 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E244" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F244" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G244" s="1"/>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
+      <c r="D245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
-      <c r="C246" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="C246" s="1"/>
       <c r="D246" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E246" s="1"/>
       <c r="F246" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G246" s="1"/>
     </row>
@@ -4503,13 +4523,11 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E247" s="1"/>
       <c r="F247" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G247" s="1"/>
     </row>
@@ -4517,7 +4535,7 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1" t="s">
@@ -4529,11 +4547,11 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G249" s="1"/>
     </row>
@@ -4541,11 +4559,11 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="G250" s="1"/>
     </row>
@@ -4553,59 +4571,61 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G251" s="1"/>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="C253" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D253" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E253" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F253" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G253" s="1"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="D254" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G254" s="1"/>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
-      <c r="C255" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E255" s="1"/>
       <c r="F255" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G255" s="1"/>
     </row>
@@ -4613,13 +4633,11 @@
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E256" s="1"/>
       <c r="F256" s="1" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="G256" s="1"/>
     </row>
@@ -4627,11 +4645,11 @@
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="E257" s="1"/>
       <c r="F257" s="1" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="G257" s="1"/>
     </row>
@@ -4639,13 +4657,11 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E258" s="1"/>
       <c r="F258" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G258" s="1"/>
     </row>
@@ -4653,11 +4669,11 @@
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -4665,7 +4681,7 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1" t="s">
@@ -4683,103 +4699,105 @@
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
-      <c r="C262" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F262" s="6" t="s">
+      <c r="C262" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F262" s="1" t="s">
         <v>215</v>
       </c>
       <c r="G262" s="1"/>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>215</v>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G263" s="1"/>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6" t="s">
-        <v>213</v>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
-      <c r="C265" s="6"/>
-      <c r="D265" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6" t="s">
-        <v>214</v>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
-      <c r="C266" s="6"/>
-      <c r="D266" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6" t="s">
-        <v>214</v>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
-      <c r="C267" s="6"/>
-      <c r="D267" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E267" s="6"/>
-      <c r="F267" s="6" t="s">
+      <c r="C267" s="1"/>
+      <c r="D267" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
-      <c r="C268" s="6"/>
-      <c r="D268" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6" t="s">
-        <v>212</v>
-      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
-      <c r="C269" s="6"/>
+      <c r="C269" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D269" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E269" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F269" s="6" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="G269" s="1"/>
     </row>
@@ -4787,35 +4805,37 @@
       <c r="B270" s="1"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E270" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F270" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="6"/>
-      <c r="D271" s="6"/>
+      <c r="D271" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
+      <c r="F271" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
-      <c r="C272" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="C272" s="6"/>
       <c r="D272" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E272" s="6"/>
       <c r="F272" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G272" s="1"/>
     </row>
@@ -4823,13 +4843,11 @@
       <c r="B273" s="1"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E273" s="6"/>
       <c r="F273" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G273" s="1"/>
     </row>
@@ -4837,13 +4855,11 @@
       <c r="B274" s="1"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E274" s="6"/>
       <c r="F274" s="6" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G274" s="1"/>
     </row>
@@ -4851,362 +4867,362 @@
       <c r="B275" s="1"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G275" s="1"/>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G276" s="1"/>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
-      <c r="C277" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>215</v>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G277" s="1"/>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
       <c r="G278" s="1"/>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>62</v>
+      <c r="C279" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="G279" s="1"/>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1" t="s">
-        <v>213</v>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="G280" s="1"/>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1" t="s">
-        <v>212</v>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E282" s="1"/>
-      <c r="F282" s="1" t="s">
-        <v>212</v>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
-      <c r="D283" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="D283" s="1"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="C284" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D284" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E284" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F284" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
+      <c r="D285" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
+      <c r="D286" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B287" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D287" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E287" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F287" s="7" t="s">
-        <v>211</v>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E288" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F288" s="7" t="s">
-        <v>215</v>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
-      <c r="C289" s="7"/>
-      <c r="D289" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E289" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F289" s="7" t="s">
-        <v>233</v>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
-      <c r="C290" s="7"/>
-      <c r="D290" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7" t="s">
-        <v>226</v>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G290" s="1"/>
-      <c r="H290" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7" t="s">
-        <v>226</v>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="7"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
-      <c r="C293" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E293" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
       <c r="G293" s="1"/>
-      <c r="H293" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B294" s="1"/>
-      <c r="C294" s="7"/>
+      <c r="B294" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D294" s="7" t="s">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="F294" s="7" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
-      <c r="C296" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>215</v>
+      <c r="C296" s="7"/>
+      <c r="D296" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
-      <c r="D297" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>215</v>
+      <c r="C297" s="7"/>
+      <c r="D297" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E297" s="7"/>
+      <c r="F297" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G297" s="1"/>
+      <c r="H297" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
-      <c r="D298" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1" t="s">
-        <v>151</v>
+      <c r="C298" s="7"/>
+      <c r="D298" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
-      <c r="D299" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="C299" s="7"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
-      <c r="D300" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1" t="s">
-        <v>189</v>
+      <c r="C300" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G300" s="1"/>
+      <c r="H300" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
-      <c r="C302" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="C303" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D303" s="1" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>215</v>
@@ -5217,11 +5233,13 @@
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E304" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F304" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G304" s="1"/>
     </row>
@@ -5229,11 +5247,11 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G305" s="1"/>
     </row>
@@ -5241,49 +5259,47 @@
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="D307" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
+      <c r="F307" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
-      <c r="C308" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
+      <c r="C309" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D309" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G309" s="1"/>
     </row>
@@ -5291,11 +5307,13 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E310" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F310" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G310" s="1"/>
     </row>
@@ -5303,11 +5321,11 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G311" s="1"/>
     </row>
@@ -5315,11 +5333,11 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G312" s="1"/>
     </row>
@@ -5327,59 +5345,61 @@
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E313" s="1"/>
       <c r="F313" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
-      <c r="D314" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E314" s="5"/>
-      <c r="F314" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E315" s="5"/>
-      <c r="F315" s="5" t="s">
-        <v>189</v>
+      <c r="C315" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
+      <c r="D316" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G316" s="1"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
-      <c r="C317" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E317" s="1"/>
       <c r="F317" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G317" s="1"/>
     </row>
@@ -5387,13 +5407,11 @@
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E318" t="s">
-        <v>278</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="E318" s="1"/>
       <c r="F318" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G318" s="1"/>
     </row>
@@ -5401,71 +5419,69 @@
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
+      <c r="D320" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
+      <c r="F320" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
-      <c r="C321" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>215</v>
+      <c r="C321" s="1"/>
+      <c r="D321" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
-      <c r="D322" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>215</v>
+      <c r="D322" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G322" s="1"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
-      <c r="D323" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="D323" s="1"/>
       <c r="E323" s="1"/>
-      <c r="F323" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
+      <c r="C324" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D324" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E324" s="1"/>
+      <c r="E324" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F324" s="1" t="s">
         <v>189</v>
       </c>
@@ -5475,11 +5491,13 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E325" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="E325" t="s">
+        <v>278</v>
+      </c>
       <c r="F325" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G325" s="1"/>
     </row>
@@ -5487,44 +5505,46 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
-      <c r="D327" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="D327" s="1"/>
       <c r="E327" s="1"/>
-      <c r="F327" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
+      <c r="C328" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
-      <c r="C329" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>215</v>
@@ -5535,13 +5555,11 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -5549,11 +5567,11 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -5561,11 +5579,11 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G332" s="1"/>
     </row>
@@ -5573,11 +5591,11 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="G333" s="1"/>
     </row>
@@ -5585,28 +5603,114 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="1" t="s">
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="1"/>
+      <c r="C336" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G337" s="1"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G338" s="1"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G339" s="1"/>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G340" s="1"/>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G341" s="1"/>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1" t="s">
+      <c r="E342" s="1"/>
+      <c r="F342" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G335" s="1"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" t="s">
+      <c r="G342" s="1"/>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
         <v>145</v>
       </c>
     </row>

--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$319</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$323</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="319">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -966,6 +966,15 @@
   </si>
   <si>
     <t>product_adjustment_description</t>
+  </si>
+  <si>
+    <t>no_faktur</t>
+  </si>
+  <si>
+    <t>hq_ip4</t>
+  </si>
+  <si>
+    <t>SYS_CONFIG</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,7 +1158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,10 +1370,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q344"/>
+  <dimension ref="B1:Q348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,28 +1490,32 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1510,13 +1523,11 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1524,35 +1535,37 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1560,11 +1573,13 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1572,239 +1587,225 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>244</v>
-      </c>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>42</v>
+        <v>189</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1812,527 +1813,541 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="N35" t="s">
-        <v>41</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="N36" t="s">
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" t="s">
         <v>42</v>
-      </c>
-      <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="N37" t="s">
-        <v>43</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
+      <c r="N39" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G40" s="1"/>
+      <c r="N40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="N41" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1"/>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="4" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G47" s="1"/>
+      <c r="H47" s="4" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>149</v>
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G55" s="1"/>
-      <c r="H55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" t="s">
-        <v>228</v>
-      </c>
-      <c r="K61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>211</v>
       </c>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>228</v>
+      </c>
+      <c r="K65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D69" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -2340,130 +2355,128 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G75" s="1"/>
-      <c r="H75" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="C81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -2471,11 +2484,13 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F83" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -2483,107 +2498,107 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D91" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E91" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F91" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G91" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -2591,11 +2606,11 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G93" s="1"/>
     </row>
@@ -2603,7 +2618,7 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
@@ -2615,652 +2630,652 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D102" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G102" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F103" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>172</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G108" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G109" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E110" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E111" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G111" s="1"/>
+      <c r="G111" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>5</v>
+        <v>162</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E113" s="8"/>
       <c r="F113" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E114" s="8"/>
       <c r="F114" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E115" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="E115" s="8"/>
       <c r="F115" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E116" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F116" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E117" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F117" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E118" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F118" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
-      <c r="C121" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
-      <c r="C124" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F125" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F126" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="C128" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D128" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E128" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F128" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
-      <c r="C130" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="D134" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E134" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F134" s="1" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E135" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F135" s="1" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D141" s="1" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>215</v>
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E143" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F143" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
-      <c r="C145" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G145" s="1"/>
     </row>
@@ -3268,11 +3283,11 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="G146" s="1"/>
     </row>
@@ -3280,45 +3295,47 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
-      <c r="C150" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G150" s="1"/>
     </row>
@@ -3326,11 +3343,11 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="G151" s="1"/>
     </row>
@@ -3338,11 +3355,11 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G152" s="1"/>
     </row>
@@ -3357,16 +3374,14 @@
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G154" s="1"/>
     </row>
@@ -3374,11 +3389,11 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G155" s="1"/>
     </row>
@@ -3386,47 +3401,47 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="C158" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
-      <c r="C159" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G159" s="1"/>
     </row>
@@ -3434,13 +3449,11 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G160" s="1"/>
     </row>
@@ -3448,37 +3461,35 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="C163" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D163" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E163" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F163" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G163" s="1"/>
     </row>
@@ -3486,11 +3497,13 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E164" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F164" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G164" s="1"/>
     </row>
@@ -3498,11 +3511,13 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E165" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F165" s="1" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="G165" s="1"/>
     </row>
@@ -3510,11 +3525,11 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G166" s="1"/>
     </row>
@@ -3522,11 +3537,11 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G167" s="1"/>
     </row>
@@ -3534,33 +3549,35 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
-      <c r="C170" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G170" s="1"/>
     </row>
@@ -3568,13 +3585,11 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G171" s="1"/>
     </row>
@@ -3582,35 +3597,33 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="C174" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D174" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E174" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F174" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G174" s="1"/>
     </row>
@@ -3618,35 +3631,37 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E175" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F175" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
-      <c r="C177" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E177" s="1"/>
       <c r="F177" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G177" s="1"/>
     </row>
@@ -3654,13 +3669,11 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E178" s="1"/>
       <c r="F178" s="1" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="G178" s="1"/>
     </row>
@@ -3668,35 +3681,35 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D181" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E181" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F181" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G181" s="1"/>
     </row>
@@ -3704,11 +3717,13 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E182" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F182" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G182" s="1"/>
     </row>
@@ -3716,11 +3731,11 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G183" s="1"/>
     </row>
@@ -3728,7 +3743,7 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
@@ -3740,35 +3755,35 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+      <c r="D186" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
-      <c r="C187" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G187" s="1"/>
     </row>
@@ -3776,13 +3791,11 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E188" s="1"/>
       <c r="F188" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -3790,37 +3803,35 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E189" s="1"/>
       <c r="F189" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="C191" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D191" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E191" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F191" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G191" s="1"/>
     </row>
@@ -3828,35 +3839,39 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E192" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F192" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
-      <c r="C194" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G194" s="1"/>
     </row>
@@ -3864,13 +3879,11 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="G195" s="1"/>
     </row>
@@ -3878,39 +3891,35 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="C198" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D198" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E198" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F198" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G198" s="1"/>
     </row>
@@ -3918,11 +3927,13 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E199" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F199" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G199" s="1"/>
     </row>
@@ -3930,11 +3941,13 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E200" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F200" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G200" s="1"/>
     </row>
@@ -3942,35 +3955,37 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E201" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F201" s="1" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
-      <c r="C203" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E203" s="1"/>
       <c r="F203" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G203" s="1"/>
     </row>
@@ -3978,11 +3993,9 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
         <v>62</v>
       </c>
@@ -3992,37 +4005,35 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E207" s="1"/>
+      <c r="C207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F207" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G207" s="1"/>
     </row>
@@ -4030,35 +4041,39 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E208" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F208" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
-      <c r="C210" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E210" s="1"/>
       <c r="F210" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -4066,13 +4081,11 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="G211" s="1"/>
     </row>
@@ -4080,39 +4093,35 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+      <c r="C214" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D214" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E214" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F214" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G214" s="1"/>
     </row>
@@ -4120,11 +4129,13 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E215" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F215" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G215" s="1"/>
     </row>
@@ -4132,13 +4143,13 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G216" s="1"/>
     </row>
@@ -4146,37 +4157,37 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
+      <c r="D218" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
+      <c r="F218" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
-      <c r="C219" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G219" s="1"/>
     </row>
@@ -4184,9 +4195,11 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E220" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F220" s="1" t="s">
         <v>62</v>
       </c>
@@ -4196,37 +4209,37 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="C223" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D223" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E223" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F223" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G223" s="1"/>
     </row>
@@ -4234,11 +4247,11 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G224" s="1"/>
     </row>
@@ -4246,11 +4259,13 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E225" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F225" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G225" s="1"/>
     </row>
@@ -4258,38 +4273,35 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G226" s="1"/>
-      <c r="H226" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="F227" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
-      <c r="C228" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G228" s="1"/>
     </row>
@@ -4297,13 +4309,11 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E229" s="1"/>
       <c r="F229" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="G229" s="1"/>
     </row>
@@ -4311,37 +4321,38 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="G230" s="1"/>
+      <c r="H230" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="1" t="s">
-        <v>299</v>
-      </c>
+      <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="C232" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D232" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E232" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F232" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G232" s="1"/>
     </row>
@@ -4349,35 +4360,39 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E233" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F233" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="D234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
-      <c r="C235" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E235" s="1"/>
       <c r="F235" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G235" s="1"/>
     </row>
@@ -4385,11 +4400,11 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="G236" s="1"/>
     </row>
@@ -4397,37 +4412,35 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E237" s="1"/>
       <c r="F237" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="C239" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D239" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E239" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F239" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G239" s="1"/>
     </row>
@@ -4435,11 +4448,11 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G240" s="1"/>
     </row>
@@ -4447,35 +4460,37 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E241" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F241" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G241" s="1"/>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
+      <c r="F242" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G242" s="1"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
-      <c r="C243" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E243" s="1"/>
       <c r="F243" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G243" s="1"/>
     </row>
@@ -4483,13 +4498,11 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E244" s="1"/>
       <c r="F244" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G244" s="1"/>
     </row>
@@ -4497,37 +4510,35 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E245" s="1"/>
       <c r="F245" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
-      <c r="D246" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="C247" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D247" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E247" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F247" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G247" s="1"/>
     </row>
@@ -4535,11 +4546,13 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E248" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F248" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G248" s="1"/>
     </row>
@@ -4547,11 +4560,13 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E249" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F249" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G249" s="1"/>
     </row>
@@ -4559,7 +4574,7 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="1" t="s">
@@ -4571,35 +4586,35 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G251" s="1"/>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
+      <c r="D252" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="F252" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G252" s="1"/>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
-      <c r="C253" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="C253" s="1"/>
       <c r="D253" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E253" s="1"/>
       <c r="F253" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G253" s="1"/>
     </row>
@@ -4607,13 +4622,11 @@
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E254" s="1"/>
       <c r="F254" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G254" s="1"/>
     </row>
@@ -4621,35 +4634,35 @@
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G255" s="1"/>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
-      <c r="D256" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="C257" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D257" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E257" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F257" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G257" s="1"/>
     </row>
@@ -4657,11 +4670,13 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E258" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F258" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G258" s="1"/>
     </row>
@@ -4669,7 +4684,7 @@
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1" t="s">
@@ -4681,35 +4696,35 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G260" s="1"/>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
+      <c r="D261" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
+      <c r="F261" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="G261" s="1"/>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
-      <c r="C262" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E262" s="1"/>
       <c r="F262" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G262" s="1"/>
     </row>
@@ -4717,13 +4732,11 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E263" s="1"/>
       <c r="F263" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="G263" s="1"/>
     </row>
@@ -4731,37 +4744,35 @@
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
-      <c r="D265" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+      <c r="C266" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D266" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E266" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F266" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G266" s="1"/>
     </row>
@@ -4769,85 +4780,87 @@
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E267" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F267" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
+      <c r="D268" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
+      <c r="F268" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G268" s="1"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
-      <c r="C269" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E269" s="6" t="s">
+      <c r="C269" s="1"/>
+      <c r="D269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F269" s="6" t="s">
-        <v>215</v>
+      <c r="F269" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="G269" s="1"/>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
-      <c r="C270" s="6"/>
-      <c r="D270" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F270" s="6" t="s">
-        <v>215</v>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G270" s="1"/>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
-      <c r="C271" s="6"/>
-      <c r="D271" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6" t="s">
+      <c r="C271" s="1"/>
+      <c r="D271" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
-      <c r="C272" s="6"/>
-      <c r="D272" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
-      <c r="C273" s="6"/>
+      <c r="C273" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D273" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E273" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F273" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G273" s="1"/>
     </row>
@@ -4855,11 +4868,13 @@
       <c r="B274" s="1"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E274" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F274" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G274" s="1"/>
     </row>
@@ -4867,11 +4882,11 @@
       <c r="B275" s="1"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G275" s="1"/>
     </row>
@@ -4879,11 +4894,11 @@
       <c r="B276" s="1"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="E276" s="6"/>
       <c r="F276" s="6" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="G276" s="1"/>
     </row>
@@ -4891,35 +4906,35 @@
       <c r="B277" s="1"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="E277" s="6"/>
       <c r="F277" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G277" s="1"/>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="6"/>
-      <c r="D278" s="6"/>
+      <c r="D278" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
+      <c r="F278" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="G278" s="1"/>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
-      <c r="C279" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E279" s="6"/>
       <c r="F279" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G279" s="1"/>
     </row>
@@ -4927,13 +4942,11 @@
       <c r="B280" s="1"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E280" s="6"/>
       <c r="F280" s="6" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -4941,101 +4954,99 @@
       <c r="B281" s="1"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E281" s="6"/>
       <c r="F281" s="6" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="D282" s="6"/>
       <c r="E282" s="6"/>
-      <c r="F282" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="F282" s="6"/>
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
+      <c r="C283" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
-      <c r="C284" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>215</v>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E285" s="1" t="s">
+      <c r="C285" s="6"/>
+      <c r="D285" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E285" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F285" s="1" t="s">
-        <v>62</v>
+      <c r="F285" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>62</v>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
-      <c r="D287" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="D287" s="1"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+      <c r="C288" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D288" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E288" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F288" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G288" s="1"/>
     </row>
@@ -5043,11 +5054,13 @@
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E289" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F289" s="1" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G289" s="1"/>
     </row>
@@ -5055,11 +5068,13 @@
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E290" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F290" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G290" s="1"/>
     </row>
@@ -5067,7 +5082,7 @@
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="E291" s="1"/>
       <c r="F291" s="1" t="s">
@@ -5078,228 +5093,228 @@
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
+      <c r="D292" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="E292" s="1"/>
-      <c r="F292" s="1"/>
+      <c r="F292" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
+      <c r="D293" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
+      <c r="F293" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G293" s="1"/>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E294" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>211</v>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F295" s="7" t="s">
-        <v>215</v>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
-      <c r="C296" s="7"/>
-      <c r="D296" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E296" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F296" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
       <c r="G297" s="1"/>
-      <c r="H297" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B298" s="1"/>
-      <c r="C298" s="7"/>
+      <c r="B298" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D298" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E298" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="F298" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="7"/>
-      <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
-      <c r="F299" s="7"/>
+      <c r="D299" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
-      <c r="C300" s="7" t="s">
-        <v>306</v>
-      </c>
+      <c r="C300" s="7"/>
       <c r="D300" s="7" t="s">
-        <v>304</v>
+        <v>92</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G300" s="1"/>
-      <c r="H300" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E301" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E301" s="7"/>
       <c r="F301" s="7" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="G301" s="1"/>
+      <c r="H301" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
-      <c r="C303" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="C303" s="7"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="7"/>
       <c r="G303" s="1"/>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-      <c r="D304" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>215</v>
+      <c r="C304" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G304" s="1"/>
+      <c r="H304" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1" t="s">
-        <v>151</v>
+      <c r="C305" s="7"/>
+      <c r="D305" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="G305" s="1"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
-      <c r="D306" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D306" s="1"/>
       <c r="E306" s="1"/>
-      <c r="F306" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="C307" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D307" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E307" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F307" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
+      <c r="D308" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G308" s="1"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
-      <c r="C309" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="E309" s="1"/>
       <c r="F309" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G309" s="1"/>
     </row>
@@ -5307,13 +5322,11 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E310" s="1"/>
       <c r="F310" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G310" s="1"/>
     </row>
@@ -5321,59 +5334,61 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G311" s="1"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
-      <c r="D312" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="D312" s="1"/>
       <c r="E312" s="1"/>
-      <c r="F312" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F312" s="1"/>
       <c r="G312" s="1"/>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+      <c r="C313" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D313" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E313" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F313" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G313" s="1"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
+      <c r="D314" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
-      <c r="C315" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="C315" s="1"/>
       <c r="D315" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E315" s="1"/>
       <c r="F315" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="G315" s="1"/>
     </row>
@@ -5381,13 +5396,11 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E316" s="1"/>
       <c r="F316" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G316" s="1"/>
     </row>
@@ -5395,35 +5408,35 @@
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="D318" s="1"/>
       <c r="E318" s="1"/>
-      <c r="F318" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="C319" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D319" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E319" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F319" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G319" s="1"/>
     </row>
@@ -5431,85 +5444,85 @@
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E320" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F320" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
-      <c r="D321" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E321" s="5"/>
-      <c r="F321" s="5" t="s">
-        <v>189</v>
+      <c r="D321" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
-      <c r="D322" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E322" s="5"/>
-      <c r="F322" s="5" t="s">
-        <v>189</v>
+      <c r="D322" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G322" s="1"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
+      <c r="D323" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
+      <c r="F323" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
-      <c r="C324" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
-      <c r="D325" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E325" t="s">
-        <v>278</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>196</v>
+      <c r="D325" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
-      <c r="D326" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E326" s="1"/>
-      <c r="F326" s="1" t="s">
-        <v>233</v>
+      <c r="D326" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G326" s="1"/>
     </row>
@@ -5524,16 +5537,16 @@
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G328" s="1"/>
     </row>
@@ -5541,13 +5554,13 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
+      </c>
+      <c r="E329" t="s">
+        <v>278</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G329" s="1"/>
     </row>
@@ -5555,35 +5568,35 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
-      <c r="D331" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="D331" s="1"/>
       <c r="E331" s="1"/>
-      <c r="F331" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="C332" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D332" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E332" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F332" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G332" s="1"/>
     </row>
@@ -5591,11 +5604,13 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E333" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F333" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="G333" s="1"/>
     </row>
@@ -5603,35 +5618,35 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E334" s="1"/>
       <c r="F334" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
+      <c r="D335" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
+      <c r="F335" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
-      <c r="C336" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="C336" s="1"/>
       <c r="D336" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E336" s="1"/>
       <c r="F336" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G336" s="1"/>
     </row>
@@ -5639,13 +5654,11 @@
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E337" s="1"/>
       <c r="F337" s="1" t="s">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="G337" s="1"/>
     </row>
@@ -5653,35 +5666,35 @@
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
-      <c r="D339" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="D339" s="1"/>
       <c r="E339" s="1"/>
-      <c r="F339" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="F339" s="1"/>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="C340" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D340" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E340" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F340" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G340" s="1"/>
     </row>
@@ -5689,11 +5702,13 @@
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E341" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F341" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="G341" s="1"/>
     </row>
@@ -5701,22 +5716,70 @@
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E342" s="1"/>
       <c r="F342" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G342" s="1"/>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G342" s="1"/>
+      <c r="G343" s="1"/>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G344" s="1"/>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G345" s="1"/>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="E112:E115"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_DOCUMENTS_/Database Design_v2.beta.xlsx
+++ b/_DOCUMENTS_/Database Design_v2.beta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$323</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$325</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="322">
   <si>
     <t>USER LEVEL MANAGEMENT</t>
   </si>
@@ -975,6 +975,15 @@
   </si>
   <si>
     <t>SYS_CONFIG</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>1 = read, 0 = not read</t>
+  </si>
+  <si>
+    <t>identifier_no</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1158,7 +1167,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1370,10 +1379,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q348"/>
+  <dimension ref="B1:Q350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,25 +1706,27 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1723,115 +1734,111 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1839,35 +1846,25 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>196</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1875,171 +1872,176 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G38" s="1"/>
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="N39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="N40" t="s">
-        <v>42</v>
-      </c>
-      <c r="P40">
-        <v>2</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="N41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" t="s">
-        <v>64</v>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G43" s="1"/>
+      <c r="N43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G44" s="1"/>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N45" t="s">
-        <v>44</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="4" t="s">
-        <v>242</v>
+      <c r="G47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>189</v>
@@ -2049,62 +2051,65 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G49" s="1"/>
+      <c r="H49" s="4" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>5</v>
@@ -2118,11 +2123,13 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2130,11 +2137,13 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2142,11 +2151,11 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2154,102 +2163,100 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G61" s="1"/>
+      <c r="H61" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -2257,89 +2264,91 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G65" s="1"/>
-      <c r="H65" t="s">
-        <v>228</v>
-      </c>
-      <c r="K65" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G67" s="1"/>
+      <c r="H67" t="s">
+        <v>228</v>
+      </c>
+      <c r="K67" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D71" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F71" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -2347,7 +2356,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -2359,7 +2368,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -2371,11 +2380,11 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -2383,11 +2392,11 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -2395,11 +2404,11 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G76" s="1"/>
     </row>
@@ -2407,11 +2416,11 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G77" s="1"/>
     </row>
@@ -2419,11 +2428,11 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -2431,194 +2440,194 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G79" s="1"/>
-      <c r="H79" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="C83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E84" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
@@ -2626,11 +2635,11 @@
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
@@ -2638,15 +2647,15 @@
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G96" s="1"/>
     </row>
@@ -2654,11 +2663,11 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G97" s="1"/>
     </row>
@@ -2666,11 +2675,11 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -2678,85 +2687,83 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
-      <c r="C102" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D104" s="1" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>233</v>
       </c>
@@ -2766,11 +2773,13 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F106" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="G106" s="1"/>
     </row>
@@ -2778,105 +2787,105 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
         <v>213</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>172</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G112" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E113" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E114" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>233</v>
       </c>
@@ -2886,7 +2895,7 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="1" t="s">
@@ -2898,13 +2907,11 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E116" s="8"/>
       <c r="F116" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G116" s="1"/>
     </row>
@@ -2912,13 +2919,11 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E117" s="8"/>
       <c r="F117" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G117" s="1"/>
     </row>
@@ -2926,13 +2931,13 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -2940,11 +2945,13 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F119" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -2952,11 +2959,13 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E120" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="F120" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G120" s="1"/>
     </row>
@@ -2964,25 +2973,23 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -2990,11 +2997,9 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
         <v>189</v>
       </c>
@@ -3005,88 +3010,90 @@
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
-      <c r="C125" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>52</v>
+        <v>178</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G125" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="C127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D130" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F130" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G130" s="1"/>
     </row>
@@ -3094,76 +3101,76 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F131" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G131" s="1"/>
-      <c r="H131" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="G133" s="1"/>
+      <c r="H133" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
-      <c r="C134" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="C136" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="D136" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E136" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F136" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G136" s="1"/>
     </row>
@@ -3171,11 +3178,13 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E137" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F137" s="1" t="s">
-        <v>313</v>
+        <v>62</v>
       </c>
       <c r="G137" s="1"/>
     </row>
@@ -3183,11 +3192,11 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="G138" s="1"/>
     </row>
@@ -3195,58 +3204,56 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
-      <c r="C141" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D143" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>215</v>
@@ -3257,11 +3264,11 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="G144" s="1"/>
     </row>
@@ -3269,7 +3276,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>5</v>
@@ -3283,7 +3290,7 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
@@ -3295,59 +3302,61 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E147" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F147" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
-      <c r="C149" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D151" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E151" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F151" s="1" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="G151" s="1"/>
     </row>
@@ -3355,105 +3364,105 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
-      <c r="C154" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="C156" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D156" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
-      <c r="C158" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D160" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E160" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F160" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G160" s="1"/>
     </row>
@@ -3461,63 +3470,59 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="D162" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
-      <c r="C163" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="C165" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D165" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G165" s="1"/>
     </row>
@@ -3525,11 +3530,13 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E166" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F166" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="G166" s="1"/>
     </row>
@@ -3537,11 +3544,13 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E167" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F167" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G167" s="1"/>
     </row>
@@ -3549,11 +3558,11 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G168" s="1"/>
     </row>
@@ -3561,11 +3570,11 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G169" s="1"/>
     </row>
@@ -3573,7 +3582,7 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
@@ -3585,11 +3594,11 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G171" s="1"/>
     </row>
@@ -3597,59 +3606,57 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="D173" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
-      <c r="C174" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="C176" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D176" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E176" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F176" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G176" s="1"/>
     </row>
@@ -3657,11 +3664,13 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E177" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F177" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G177" s="1"/>
     </row>
@@ -3669,11 +3678,11 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G178" s="1"/>
     </row>
@@ -3681,7 +3690,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1" t="s">
@@ -3692,50 +3701,48 @@
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
-      <c r="C181" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D183" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E183" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F183" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G183" s="1"/>
     </row>
@@ -3743,11 +3750,13 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E184" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F184" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G184" s="1"/>
     </row>
@@ -3755,11 +3764,11 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G185" s="1"/>
     </row>
@@ -3767,11 +3776,11 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G186" s="1"/>
     </row>
@@ -3779,7 +3788,7 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
@@ -3791,11 +3800,11 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -3803,63 +3812,59 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
-      <c r="C191" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="C193" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D193" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G193" s="1"/>
     </row>
@@ -3867,11 +3872,13 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E194" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F194" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G194" s="1"/>
     </row>
@@ -3879,11 +3886,13 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E195" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F195" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G195" s="1"/>
     </row>
@@ -3891,7 +3900,7 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
@@ -3902,52 +3911,48 @@
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
-      <c r="C198" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="C200" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D200" s="1" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G200" s="1"/>
     </row>
@@ -3955,13 +3960,13 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G201" s="1"/>
     </row>
@@ -3969,11 +3974,13 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E202" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F202" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G202" s="1"/>
     </row>
@@ -3981,11 +3988,13 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E203" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F203" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G203" s="1"/>
     </row>
@@ -3993,11 +4002,11 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="G204" s="1"/>
     </row>
@@ -4005,63 +4014,59 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
-      <c r="C207" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1" t="s">
-        <v>78</v>
+      <c r="C209" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G209" s="1"/>
     </row>
@@ -4069,11 +4074,13 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E210" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F210" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -4081,11 +4088,13 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E211" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F211" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G211" s="1"/>
     </row>
@@ -4093,7 +4102,7 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
@@ -4104,52 +4113,48 @@
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="D213" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+      <c r="F213" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
-      <c r="C214" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="C216" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="D216" s="1" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G216" s="1"/>
     </row>
@@ -4157,13 +4162,13 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="G217" s="1"/>
     </row>
@@ -4171,11 +4176,13 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E218" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F218" s="1" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G218" s="1"/>
     </row>
@@ -4183,11 +4190,13 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E219" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F219" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G219" s="1"/>
     </row>
@@ -4195,13 +4204,11 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="G220" s="1"/>
     </row>
@@ -4209,63 +4216,63 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E221" s="1"/>
       <c r="F221" s="1" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
+      <c r="D222" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
-      <c r="C223" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="C225" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D225" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G225" s="1"/>
     </row>
@@ -4273,11 +4280,11 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G226" s="1"/>
     </row>
@@ -4285,11 +4292,13 @@
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E227" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F227" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G227" s="1"/>
     </row>
@@ -4297,11 +4306,11 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G228" s="1"/>
     </row>
@@ -4309,7 +4318,7 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1" t="s">
@@ -4321,66 +4330,62 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="G230" s="1"/>
-      <c r="H230" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
+      <c r="D231" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
+      <c r="F231" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
-      <c r="C232" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E232" s="1"/>
       <c r="F232" s="1" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G232" s="1"/>
+      <c r="H232" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="C234" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D234" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G234" s="1"/>
     </row>
@@ -4388,11 +4393,13 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E235" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F235" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="G235" s="1"/>
     </row>
@@ -4400,11 +4407,13 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E236" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F236" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G236" s="1"/>
     </row>
@@ -4412,61 +4421,59 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
+      <c r="D238" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
-      <c r="C239" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="C239" s="1"/>
       <c r="D239" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E239" s="1"/>
       <c r="F239" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
-      <c r="D240" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="C241" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D241" s="1" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G241" s="1"/>
     </row>
@@ -4474,11 +4481,11 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G242" s="1"/>
     </row>
@@ -4486,11 +4493,13 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E243" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F243" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="G243" s="1"/>
     </row>
@@ -4498,11 +4507,11 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G244" s="1"/>
     </row>
@@ -4510,63 +4519,59 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G245" s="1"/>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
+      <c r="D246" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
+      <c r="F246" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G246" s="1"/>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
-      <c r="C247" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="C247" s="1"/>
       <c r="D247" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E247" s="1"/>
       <c r="F247" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G247" s="1"/>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
-      <c r="D248" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D249" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G249" s="1"/>
     </row>
@@ -4574,11 +4579,13 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E250" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F250" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="G250" s="1"/>
     </row>
@@ -4586,11 +4593,13 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E251" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F251" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G251" s="1"/>
     </row>
@@ -4598,11 +4607,11 @@
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G252" s="1"/>
     </row>
@@ -4610,11 +4619,11 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G253" s="1"/>
     </row>
@@ -4622,11 +4631,11 @@
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E254" s="1"/>
       <c r="F254" s="1" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G254" s="1"/>
     </row>
@@ -4634,7 +4643,7 @@
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1" t="s">
@@ -4645,50 +4654,48 @@
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
+      <c r="D256" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="F256" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G256" s="1"/>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
-      <c r="C257" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="C257" s="1"/>
       <c r="D257" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E257" s="1"/>
       <c r="F257" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D259" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E259" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F259" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G259" s="1"/>
     </row>
@@ -4696,11 +4703,13 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E260" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F260" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G260" s="1"/>
     </row>
@@ -4708,11 +4717,11 @@
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G261" s="1"/>
     </row>
@@ -4720,11 +4729,11 @@
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G262" s="1"/>
     </row>
@@ -4732,11 +4741,11 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G263" s="1"/>
     </row>
@@ -4744,61 +4753,59 @@
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G264" s="1"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
+      <c r="D265" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
+      <c r="F265" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G265" s="1"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
-      <c r="C266" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="C266" s="1"/>
       <c r="D266" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E266" s="1"/>
       <c r="F266" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G266" s="1"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
-      <c r="D267" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="C268" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D268" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E268" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F268" s="1" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="G268" s="1"/>
     </row>
@@ -4806,13 +4813,13 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="G269" s="1"/>
     </row>
@@ -4820,11 +4827,11 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E270" s="1"/>
       <c r="F270" s="1" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="G270" s="1"/>
     </row>
@@ -4832,61 +4839,61 @@
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E271" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F271" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G271" s="1"/>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
+      <c r="D272" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
+      <c r="F272" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
-      <c r="C273" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F273" s="6" t="s">
-        <v>215</v>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
-      <c r="C274" s="6"/>
-      <c r="D274" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F274" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
-      <c r="C275" s="6"/>
+      <c r="C275" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="D275" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E275" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F275" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G275" s="1"/>
     </row>
@@ -4894,11 +4901,13 @@
       <c r="B276" s="1"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E276" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F276" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G276" s="1"/>
     </row>
@@ -4906,11 +4915,11 @@
       <c r="B277" s="1"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="E277" s="6"/>
       <c r="F277" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G277" s="1"/>
     </row>
@@ -4918,11 +4927,11 @@
       <c r="B278" s="1"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E278" s="6"/>
       <c r="F278" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G278" s="1"/>
     </row>
@@ -4930,11 +4939,11 @@
       <c r="B279" s="1"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E279" s="6"/>
       <c r="F279" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G279" s="1"/>
     </row>
@@ -4942,11 +4951,11 @@
       <c r="B280" s="1"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="6" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -4954,63 +4963,59 @@
       <c r="B281" s="1"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
+      <c r="D282" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
+      <c r="F282" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
-      <c r="C283" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="C283" s="6"/>
       <c r="D283" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E283" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E283" s="6"/>
       <c r="F283" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="6"/>
-      <c r="D284" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F284" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
-      <c r="C285" s="6"/>
+      <c r="C285" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="D285" s="6" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G285" s="1"/>
     </row>
@@ -5018,63 +5023,63 @@
       <c r="B286" s="1"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E286" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F286" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
-      <c r="C288" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>215</v>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="C290" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D290" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="G290" s="1"/>
     </row>
@@ -5082,11 +5087,13 @@
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E291" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F291" s="1" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="G291" s="1"/>
     </row>
@@ -5094,11 +5101,13 @@
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E292" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F292" s="1" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="G292" s="1"/>
     </row>
@@ -5106,11 +5115,11 @@
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E293" s="1"/>
       <c r="F293" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G293" s="1"/>
     </row>
@@ -5118,11 +5127,11 @@
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="E294" s="1"/>
       <c r="F294" s="1" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="G294" s="1"/>
     </row>
@@ -5130,73 +5139,69 @@
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="E295" s="1"/>
       <c r="F295" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
+      <c r="D296" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
+      <c r="F296" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
+      <c r="D297" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
+      <c r="F297" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G297" s="1"/>
     </row>
     <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E298" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F298" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
-      <c r="C299" s="7"/>
-      <c r="D299" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E299" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F299" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B300" s="1"/>
-      <c r="C300" s="7"/>
+      <c r="B300" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="D300" s="7" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="F300" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G300" s="1"/>
     </row>
@@ -5204,265 +5209,267 @@
       <c r="B301" s="1"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E301" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="F301" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G301" s="1"/>
-      <c r="H301" t="s">
-        <v>305</v>
-      </c>
     </row>
     <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E302" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="F302" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="7"/>
-      <c r="D303" s="7"/>
+      <c r="D303" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
+      <c r="F303" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="G303" s="1"/>
+      <c r="H303" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
-      <c r="C304" s="7" t="s">
-        <v>306</v>
-      </c>
+      <c r="C304" s="7"/>
       <c r="D304" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E304" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E304" s="7"/>
       <c r="F304" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G304" s="1"/>
-      <c r="H304" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="7"/>
-      <c r="D305" s="7" t="s">
+      <c r="D305" s="7"/>
+      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
+      <c r="G305" s="1"/>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B306" s="1"/>
+      <c r="C306" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G306" s="1"/>
+      <c r="H306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B307" s="1"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="E305" s="7" t="s">
+      <c r="E307" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F305" s="7" t="s">
+      <c r="F307" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G305" s="1"/>
-    </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-    </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B307" s="1"/>
-      <c r="C307" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
-      <c r="D308" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F308" s="1" t="s">
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B309" s="1"/>
+      <c r="C309" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F309" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G308" s="1"/>
-    </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E310" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F310" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
+      <c r="D312" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+      <c r="F312" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
-      <c r="C313" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E313" s="1"/>
       <c r="F313" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
-      <c r="D314" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F314" s="1" t="s">
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F315" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G314" s="1"/>
-    </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E316" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F316" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E317" s="1"/>
       <c r="F317" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
+      <c r="D318" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E318" s="1"/>
-      <c r="F318" s="1"/>
+      <c r="F318" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
-      <c r="C319" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="C319" s="1"/>
       <c r="D319" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E319" s="1"/>
       <c r="F319" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
-      <c r="D320" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="C321" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D321" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E321" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F321" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G321" s="1"/>
     </row>
@@ -5470,11 +5477,13 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E322" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F322" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -5482,11 +5491,11 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -5494,22 +5503,22 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
-      <c r="D325" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E325" s="5"/>
-      <c r="F325" s="5" t="s">
+      <c r="D325" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1" t="s">
         <v>189</v>
       </c>
       <c r="G325" s="1"/>
@@ -5517,35 +5526,35 @@
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
-      <c r="D326" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E326" s="5"/>
-      <c r="F326" s="5" t="s">
-        <v>189</v>
+      <c r="D326" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
+      <c r="D327" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
-      <c r="C328" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F328" s="1" t="s">
+      <c r="C328" s="1"/>
+      <c r="D328" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5" t="s">
         <v>189</v>
       </c>
       <c r="G328" s="1"/>
@@ -5553,76 +5562,74 @@
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
-      <c r="D329" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E329" t="s">
-        <v>278</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
+      <c r="C330" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D330" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E330" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F330" s="1" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
+      <c r="D331" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E331" t="s">
+        <v>278</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
-      <c r="C332" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="C332" s="1"/>
       <c r="D332" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
-      <c r="D333" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="C334" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D334" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E334" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F334" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G334" s="1"/>
     </row>
@@ -5630,11 +5637,13 @@
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E335" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F335" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G335" s="1"/>
     </row>
@@ -5642,11 +5651,11 @@
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E336" s="1"/>
       <c r="F336" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G336" s="1"/>
     </row>
@@ -5654,11 +5663,11 @@
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="E337" s="1"/>
       <c r="F337" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G337" s="1"/>
     </row>
@@ -5666,61 +5675,59 @@
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
+      <c r="D339" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
+      <c r="F339" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
-      <c r="C340" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="C340" s="1"/>
       <c r="D340" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E340" s="1"/>
       <c r="F340" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
-      <c r="D341" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="C342" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D342" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E342" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F342" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="G342" s="1"/>
     </row>
@@ -5728,11 +5735,13 @@
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E343" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F343" s="1" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G343" s="1"/>
     </row>
@@ -5740,11 +5749,11 @@
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E344" s="1"/>
       <c r="F344" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="G344" s="1"/>
     </row>
@@ -5752,11 +5761,11 @@
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1" t="s">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="E345" s="1"/>
       <c r="F345" s="1" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="G345" s="1"/>
     </row>
@@ -5764,22 +5773,46 @@
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E346" s="1"/>
       <c r="F346" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G346" s="1"/>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G347" s="1"/>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G346" s="1"/>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
+      <c r="G348" s="1"/>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="E114:E117"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
